--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_ADT/3.4.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_ADT/3.4.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/antonello_naccarato_eng_it/Documents/Sanita/Prodotti/Bridge/CR/BTU-111703 - adeguamento ad FSE 2.0/Test/20230306/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5CD9BFAF-1A3B-4AC9-B998-E51FB01A1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2696D5A2-5707-4F69-86FB-19936F9357A7}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{5CD9BFAF-1A3B-4AC9-B998-E51FB01A1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059F8829-D657-4DB8-B247-3EF0F7379A7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="395">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1965,24 +1965,12 @@
 </t>
   </si>
   <si>
-    <t>Viene segnalato un errore di timeout</t>
-  </si>
-  <si>
-    <t>Test inserito in data successiva alla prima commit</t>
-  </si>
-  <si>
     <t>2023-01-30T16:49:48Z</t>
   </si>
   <si>
     <t>159bc6275b7a126b</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Viene inviato a video all'operatore un messaggio di errore per la mancanza di almento uno fra i codici identificativi CF, STP o ENI.</t>
-  </si>
-  <si>
     <t>Test non eseguibile. L'applicativo controlla che il CF del paziente sia composto da sole lettere maiuscole</t>
   </si>
   <si>
@@ -2004,9 +1992,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.1.c607ffe2e053a6255ca107a48d9e7da70a0e45fb1758e838419c254bb4288330.63cfbff756^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Viene inviato a video all'operatore un messaggio di errore per errata codifica del Sesso del paziente</t>
-  </si>
-  <si>
     <t>2023-01-30T12:55:59Z</t>
   </si>
   <si>
@@ -2016,9 +2001,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.1.bdad9c1e71ed8aaee84cf9fb65a2d673c7b68ad969b0c445fb55221d09aeecc2.39f84483b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Viene inviato a video all'operatore un messaggio di errore per mancanza delle informazioni inerenti alle “Condizioni del paziente alla dimissione e diagnosi alla dimissione”</t>
-  </si>
-  <si>
     <t>2023-01-30T12:59:28Z</t>
   </si>
   <si>
@@ -2028,9 +2010,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.1.bdad9c1e71ed8aaee84cf9fb65a2d673c7b68ad969b0c445fb55221d09aeecc2.8ab91060c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene inviato a video all'operatore un messaggio di errore per mancanza delle informazioni testuali del  “Decorso Ospedaliero” </t>
-  </si>
-  <si>
     <t>Test non eseguibile. L'applicativo  gestisce una anamnesi omnicomprensiva in cui non sono distinguibili quella prossima da quella remota.</t>
   </si>
   <si>
@@ -2038,17 +2017,101 @@
   </si>
   <si>
     <t>Test non eseguibile. L'applicativo non gestisce diagnosi di ammissione codificata</t>
+  </si>
+  <si>
+    <t>Verbale: Token jwt mancante o non valido: Il campo person_id non è valorizzato.
+Errore nella generazione del report</t>
+  </si>
+  <si>
+    <t>Verbale: Richiesta non valida** (input non valido o validazione/ pubblicazione non corretta): Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: A]</t>
+  </si>
+  <si>
+    <t>Richiesta semanticamente non processabile: [ERRORE-b5| Sezione Condizioni del paziente e diagnosi alla dimissione: la sezione DEVE essere presente],[ERRORE-b6| Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione DEVE contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
+  </si>
+  <si>
+    <t>Richiesta semanticamente non processabile: [ERRORE-b3| Sezione Decorso Ospedaliero: la sezione DEVE essere presente],[ERRORE-b4| Sezione Decorso Ospedaliero: La sezione deve contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
+  </si>
+  <si>
+    <t>Viene segnalato un errore inaspettato.Per questa tipologia di errore l'operatore verrà istruito affinchè riporti il messaggio all'amministratore di sistema e riprovi in un secondo momento</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore sul token. Per questa tipologia di errore l'operatore verrà istruito affinchè riporti il messaggio all'amministratore di sistema e riprovi in un secondo momento</t>
+  </si>
+  <si>
+    <t>Viene inviato a video all'operatore un messaggio di errore per la mancanza di almento uno fra i codici identificativi CF, STP o ENI.
+L'operatore dovrà procedere da backoffice alla bonifica dei dati</t>
+  </si>
+  <si>
+    <t>Viene inviato a video all'operatore un messaggio di errore per mancanza delle informazioni testuali del  “Decorso Ospedaliero”.
+L'operatore dovrà procedere da backoffice alla bonifica dei dati</t>
+  </si>
+  <si>
+    <t>Viene inviato a video all'operatore un messaggio di errore per errata codifica del sesso del paziente.
+L'operatore dovrà procedere da backoffice alla bonifica dei dati</t>
+  </si>
+  <si>
+    <t>Viene inviato a video all'operatore un messaggio di errore per mancanza delle informazioni inerenti alle “Condizioni del paziente alla dimissione e diagnosi alla dimissione”.
+L'operatore dovrà procedere da backoffice alla bonifica dei dati</t>
+  </si>
+  <si>
+    <t>Token jwt mancante o non valido: Unauthorized request content.
+Si prega di contattare l'amministratore di sistema</t>
+  </si>
+  <si>
+    <t>2023-03-08T09:55:16Z</t>
+  </si>
+  <si>
+    <t>La gestione dell'errore sarà in carico al presidio Engineering presso il cliente che provvederà ad identificare e correggere il problema riscontrato sulla generazione del token.
+La LDO non viene generata ma il paziente viene comunque dimesso e gli viene consegnata una stampa prodotta ad hoc. Il processo di generazione della LDO con CDA2 viene invece bloccato.</t>
+  </si>
+  <si>
+    <t>La LDO non viene generata ma il paziente viene comunque dimesso e gli viene consegnata una stampa prodotta ad hoc. Il processo di generazione della LDO con CDA2 viene invece bloccato.
+Da backoffice è possibile andare a correggere l'errore individuato. Sarà possibile quindi generare la LDO del paziente dimesso.</t>
+  </si>
+  <si>
+    <t>La LDO non viene generata ma il paziente viene comunque dimesso e gli viene consegnata una stampa prodotta ad hoc. Il processo di generazione della LDO con CDA2 viene invece bloccato.
+Da backoffice è possibile andare a modificare i dati relativi all'errore individuato. Sarà possibile quindi generare il verbale del paziente dimesso.</t>
+  </si>
+  <si>
+    <t>La LDO non viene generata ma il paziente viene comunque dimesso e gli viene consegnata una stampa prodotta ad hoc. Il processo di generazione della LDO con CDA2 viene invece bloccato.
+Da backoffice è possibile andare a modificare i dati relativi all'errore individuato. Sarà possibile quindi generare la LDO del paziente dimesso.</t>
+  </si>
+  <si>
+    <t>2023-03-08T12:59:46Z</t>
+  </si>
+  <si>
+    <t>6c3ad7240c5c7830</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>21696a0dca6f4752</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2187,7 +2250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2593,232 +2656,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2897,6 +3012,26 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3118,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D36E9AF-94FE-416B-9D8F-94A8E1E32711}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3278,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="62" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4271,10 +4406,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
+      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4427,7 @@
     <col min="11" max="11" width="37.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" style="31" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
@@ -4320,12 +4455,12 @@
       <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -4343,14 +4478,14 @@
       <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="82"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -4368,12 +4503,12 @@
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="74" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="81" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="30"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -4392,12 +4527,12 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="82"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -4415,8 +4550,8 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="32"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -4698,7 +4833,7 @@
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="44"/>
-      <c r="S14" s="42"/>
+      <c r="S14" s="65"/>
       <c r="T14" s="46" t="s">
         <v>329</v>
       </c>
@@ -4745,7 +4880,7 @@
       <c r="S15" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="T15" s="63" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4791,7 +4926,7 @@
       <c r="S16" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="63" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4837,7 +4972,7 @@
       <c r="S17" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="63" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4883,7 +5018,7 @@
       <c r="S18" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="T18" s="53" t="s">
+      <c r="T18" s="63" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4916,7 +5051,7 @@
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="44"/>
-      <c r="S19" s="42"/>
+      <c r="S19" s="66"/>
       <c r="T19" s="46" t="s">
         <v>329</v>
       </c>
@@ -5460,12 +5595,12 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="44"/>
-      <c r="S35" s="42"/>
+      <c r="S35" s="65"/>
       <c r="T35" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="172.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36">
         <v>29</v>
       </c>
@@ -5481,25 +5616,43 @@
       <c r="E36" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
+      <c r="F36" s="39">
+        <v>44993</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>393</v>
+      </c>
       <c r="J36" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+      <c r="M36" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>380</v>
+      </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="44"/>
-      <c r="S36" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="T36" s="46" t="s">
+      <c r="S36" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="T36" s="64" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5524,7 +5677,7 @@
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
+      <c r="K37" s="42"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -5532,7 +5685,6 @@
       <c r="P37" s="41"/>
       <c r="Q37" s="41"/>
       <c r="R37" s="44"/>
-      <c r="S37" s="42"/>
       <c r="T37" s="46" t="s">
         <v>330</v>
       </c>
@@ -5558,7 +5710,7 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
+      <c r="K38" s="42"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -5566,7 +5718,6 @@
       <c r="P38" s="41"/>
       <c r="Q38" s="41"/>
       <c r="R38" s="44"/>
-      <c r="S38" s="42"/>
       <c r="T38" s="46" t="s">
         <v>330</v>
       </c>
@@ -5592,7 +5743,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="42"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -5600,7 +5751,6 @@
       <c r="P39" s="41"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="44"/>
-      <c r="S39" s="42"/>
       <c r="T39" s="46" t="s">
         <v>330</v>
       </c>
@@ -5626,7 +5776,7 @@
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="42"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -5634,7 +5784,6 @@
       <c r="P40" s="41"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="44"/>
-      <c r="S40" s="42"/>
       <c r="T40" s="46" t="s">
         <v>330</v>
       </c>
@@ -5660,7 +5809,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
       <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
+      <c r="K41" s="42"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -5668,12 +5817,11 @@
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="44"/>
-      <c r="S41" s="42"/>
       <c r="T41" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36">
         <v>37</v>
       </c>
@@ -5689,25 +5837,43 @@
       <c r="E42" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
+      <c r="F42" s="39">
+        <v>44993</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>393</v>
+      </c>
       <c r="J42" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="42"/>
+      <c r="L42" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
+      <c r="M42" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>380</v>
+      </c>
       <c r="Q42" s="41"/>
       <c r="R42" s="44"/>
-      <c r="S42" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="T42" s="46" t="s">
+      <c r="S42" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="T42" s="64" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5732,7 +5898,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
       <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -5740,7 +5906,6 @@
       <c r="P43" s="41"/>
       <c r="Q43" s="41"/>
       <c r="R43" s="44"/>
-      <c r="S43" s="42"/>
       <c r="T43" s="46" t="s">
         <v>330</v>
       </c>
@@ -5766,7 +5931,7 @@
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
       <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
+      <c r="K44" s="42"/>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
@@ -5774,7 +5939,6 @@
       <c r="P44" s="41"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="44"/>
-      <c r="S44" s="42"/>
       <c r="T44" s="46" t="s">
         <v>330</v>
       </c>
@@ -5800,7 +5964,7 @@
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
       <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
+      <c r="K45" s="42"/>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
@@ -5808,7 +5972,6 @@
       <c r="P45" s="41"/>
       <c r="Q45" s="41"/>
       <c r="R45" s="44"/>
-      <c r="S45" s="42"/>
       <c r="T45" s="46" t="s">
         <v>330</v>
       </c>
@@ -5834,7 +5997,7 @@
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
       <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
+      <c r="K46" s="42"/>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
@@ -5842,7 +6005,6 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
       <c r="R46" s="44"/>
-      <c r="S46" s="42"/>
       <c r="T46" s="46" t="s">
         <v>330</v>
       </c>
@@ -5868,7 +6030,7 @@
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
+      <c r="K47" s="42"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
@@ -5878,12 +6040,11 @@
       <c r="R47" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S47" s="42"/>
       <c r="T47" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36">
         <v>45</v>
       </c>
@@ -5906,24 +6067,24 @@
       <c r="J48" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="K48" s="41"/>
+      <c r="K48" s="42"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
-      <c r="P48" s="41" t="s">
-        <v>357</v>
+      <c r="P48" s="38" t="s">
+        <v>379</v>
       </c>
       <c r="Q48" s="41"/>
       <c r="R48" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S48" s="42"/>
-      <c r="T48" s="46" t="s">
+      <c r="S48" s="38"/>
+      <c r="T48" s="64" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -5944,7 +6105,7 @@
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
+      <c r="K49" s="42"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
@@ -5954,12 +6115,11 @@
       <c r="R49" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S49" s="42"/>
       <c r="T49" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -5980,7 +6140,7 @@
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
+      <c r="K50" s="42"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
@@ -5990,12 +6150,11 @@
       <c r="R50" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S50" s="42"/>
       <c r="T50" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -6016,7 +6175,7 @@
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
+      <c r="K51" s="42"/>
       <c r="L51" s="41"/>
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
@@ -6026,12 +6185,11 @@
       <c r="R51" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S51" s="42"/>
       <c r="T51" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="45.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36">
         <v>51</v>
       </c>
@@ -6052,7 +6210,7 @@
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="41"/>
       <c r="M52" s="41"/>
       <c r="N52" s="41"/>
@@ -6062,12 +6220,11 @@
       <c r="R52" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="S52" s="42"/>
       <c r="T52" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36">
         <v>52</v>
       </c>
@@ -6088,7 +6245,7 @@
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
       <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="K53" s="42"/>
       <c r="L53" s="41"/>
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
@@ -6096,12 +6253,11 @@
       <c r="P53" s="41"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="44"/>
-      <c r="S53" s="42"/>
       <c r="T53" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36">
         <v>53</v>
       </c>
@@ -6122,7 +6278,7 @@
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
       <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
+      <c r="K54" s="42"/>
       <c r="L54" s="41"/>
       <c r="M54" s="41"/>
       <c r="N54" s="41"/>
@@ -6130,12 +6286,11 @@
       <c r="P54" s="41"/>
       <c r="Q54" s="41"/>
       <c r="R54" s="44"/>
-      <c r="S54" s="42"/>
       <c r="T54" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="36">
         <v>54</v>
       </c>
@@ -6156,7 +6311,7 @@
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
       <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
+      <c r="K55" s="42"/>
       <c r="L55" s="41"/>
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
@@ -6164,7 +6319,6 @@
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
       <c r="R55" s="44"/>
-      <c r="S55" s="42"/>
       <c r="T55" s="46" t="s">
         <v>330</v>
       </c>
@@ -6190,7 +6344,7 @@
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
       <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="K56" s="42"/>
       <c r="L56" s="41"/>
       <c r="M56" s="41"/>
       <c r="N56" s="41"/>
@@ -6198,7 +6352,6 @@
       <c r="P56" s="41"/>
       <c r="Q56" s="41"/>
       <c r="R56" s="44"/>
-      <c r="S56" s="42"/>
       <c r="T56" s="46" t="s">
         <v>330</v>
       </c>
@@ -6224,7 +6377,7 @@
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
       <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
+      <c r="K57" s="42"/>
       <c r="L57" s="41"/>
       <c r="M57" s="41"/>
       <c r="N57" s="41"/>
@@ -6232,7 +6385,6 @@
       <c r="P57" s="41"/>
       <c r="Q57" s="41"/>
       <c r="R57" s="44"/>
-      <c r="S57" s="42"/>
       <c r="T57" s="46" t="s">
         <v>330</v>
       </c>
@@ -6258,7 +6410,7 @@
       <c r="H58" s="40"/>
       <c r="I58" s="40"/>
       <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="K58" s="42"/>
       <c r="L58" s="41"/>
       <c r="M58" s="41"/>
       <c r="N58" s="41"/>
@@ -6266,7 +6418,6 @@
       <c r="P58" s="41"/>
       <c r="Q58" s="41"/>
       <c r="R58" s="44"/>
-      <c r="S58" s="42"/>
       <c r="T58" s="46" t="s">
         <v>330</v>
       </c>
@@ -6292,7 +6443,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="40"/>
       <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="41"/>
       <c r="M59" s="41"/>
       <c r="N59" s="41"/>
@@ -6300,7 +6451,6 @@
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="44"/>
-      <c r="S59" s="42"/>
       <c r="T59" s="46" t="s">
         <v>330</v>
       </c>
@@ -6326,7 +6476,7 @@
       <c r="H60" s="40"/>
       <c r="I60" s="40"/>
       <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="41"/>
       <c r="M60" s="41"/>
       <c r="N60" s="41"/>
@@ -6334,7 +6484,6 @@
       <c r="P60" s="41"/>
       <c r="Q60" s="41"/>
       <c r="R60" s="44"/>
-      <c r="S60" s="42"/>
       <c r="T60" s="46" t="s">
         <v>330</v>
       </c>
@@ -6360,7 +6509,7 @@
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
       <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="41"/>
       <c r="M61" s="41"/>
       <c r="N61" s="41"/>
@@ -6368,7 +6517,6 @@
       <c r="P61" s="41"/>
       <c r="Q61" s="41"/>
       <c r="R61" s="44"/>
-      <c r="S61" s="42"/>
       <c r="T61" s="46" t="s">
         <v>330</v>
       </c>
@@ -6394,7 +6542,7 @@
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="41"/>
       <c r="M62" s="41"/>
       <c r="N62" s="41"/>
@@ -6402,7 +6550,6 @@
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="44"/>
-      <c r="S62" s="42"/>
       <c r="T62" s="46" t="s">
         <v>330</v>
       </c>
@@ -6428,7 +6575,7 @@
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
       <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="41"/>
       <c r="M63" s="41"/>
       <c r="N63" s="41"/>
@@ -6436,12 +6583,11 @@
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="R63" s="44"/>
-      <c r="S63" s="42"/>
       <c r="T63" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36">
         <v>63</v>
       </c>
@@ -6461,29 +6607,39 @@
         <v>44956.655914351853</v>
       </c>
       <c r="G64" s="49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I64" s="49" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="J64" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="54" t="s">
-        <v>362</v>
+      <c r="K64" s="54"/>
+      <c r="L64" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M64" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="O64" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" s="53" t="s">
+        <v>381</v>
       </c>
       <c r="Q64" s="50"/>
       <c r="R64" s="51"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="53" t="s">
+      <c r="S64" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="T64" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6510,7 +6666,9 @@
       <c r="J65" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="49"/>
+      <c r="K65" s="55" t="s">
+        <v>359</v>
+      </c>
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
       <c r="N65" s="49"/>
@@ -6518,10 +6676,8 @@
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="51"/>
-      <c r="S65" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="T65" s="53" t="s">
+      <c r="S65" s="67"/>
+      <c r="T65" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6548,7 +6704,9 @@
       <c r="J66" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K66" s="49"/>
+      <c r="K66" s="55" t="s">
+        <v>360</v>
+      </c>
       <c r="L66" s="49"/>
       <c r="M66" s="49"/>
       <c r="N66" s="49"/>
@@ -6556,10 +6714,8 @@
       <c r="P66" s="50"/>
       <c r="Q66" s="50"/>
       <c r="R66" s="51"/>
-      <c r="S66" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="T66" s="53" t="s">
+      <c r="S66" s="67"/>
+      <c r="T66" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6586,7 +6742,9 @@
       <c r="J67" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K67" s="49"/>
+      <c r="K67" s="55" t="s">
+        <v>361</v>
+      </c>
       <c r="L67" s="49"/>
       <c r="M67" s="49"/>
       <c r="N67" s="49"/>
@@ -6594,10 +6752,8 @@
       <c r="P67" s="50"/>
       <c r="Q67" s="50"/>
       <c r="R67" s="51"/>
-      <c r="S67" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="T67" s="53" t="s">
+      <c r="S67" s="67"/>
+      <c r="T67" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6624,7 +6780,9 @@
       <c r="J68" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K68" s="49"/>
+      <c r="K68" s="55" t="s">
+        <v>362</v>
+      </c>
       <c r="L68" s="49"/>
       <c r="M68" s="49"/>
       <c r="N68" s="49"/>
@@ -6632,14 +6790,12 @@
       <c r="P68" s="50"/>
       <c r="Q68" s="50"/>
       <c r="R68" s="51"/>
-      <c r="S68" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="T68" s="53" t="s">
+      <c r="S68" s="67"/>
+      <c r="T68" s="63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36">
         <v>68</v>
       </c>
@@ -6659,33 +6815,43 @@
         <v>44956.668854166666</v>
       </c>
       <c r="G69" s="49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I69" s="49" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J69" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="54" t="s">
-        <v>370</v>
+      <c r="K69" s="54"/>
+      <c r="L69" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M69" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N69" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" s="53" t="s">
+        <v>383</v>
       </c>
       <c r="Q69" s="50"/>
       <c r="R69" s="51"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="53" t="s">
+      <c r="S69" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="T69" s="63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -6705,33 +6871,43 @@
         <v>44956.668854166666</v>
       </c>
       <c r="G70" s="49" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H70" s="49" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I70" s="49" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J70" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="54" t="s">
-        <v>374</v>
+      <c r="K70" s="55"/>
+      <c r="L70" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M70" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O70" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" s="53" t="s">
+        <v>384</v>
       </c>
       <c r="Q70" s="50"/>
       <c r="R70" s="51"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="53" t="s">
+      <c r="S70" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="T70" s="63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="36">
         <v>70</v>
       </c>
@@ -6751,29 +6927,39 @@
         <v>44956.668854166666</v>
       </c>
       <c r="G71" s="49" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H71" s="49" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J71" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="54" t="s">
+      <c r="K71" s="55"/>
+      <c r="L71" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M71" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N71" s="49" t="s">
         <v>378</v>
+      </c>
+      <c r="O71" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P71" s="53" t="s">
+        <v>382</v>
       </c>
       <c r="Q71" s="50"/>
       <c r="R71" s="51"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="53" t="s">
+      <c r="S71" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="T71" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6800,7 +6986,9 @@
       <c r="J72" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K72" s="49"/>
+      <c r="K72" s="52" t="s">
+        <v>372</v>
+      </c>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="49"/>
@@ -6808,10 +6996,8 @@
       <c r="P72" s="50"/>
       <c r="Q72" s="50"/>
       <c r="R72" s="51"/>
-      <c r="S72" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="T72" s="53" t="s">
+      <c r="S72" s="67"/>
+      <c r="T72" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6838,18 +7024,18 @@
       <c r="J73" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K73" s="49"/>
+      <c r="K73" s="57" t="s">
+        <v>373</v>
+      </c>
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
       <c r="N73" s="49"/>
       <c r="O73" s="49"/>
       <c r="P73" s="50"/>
       <c r="Q73" s="50"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="T73" s="53" t="s">
+      <c r="R73" s="56"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6876,18 +7062,18 @@
       <c r="J74" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K74" s="49"/>
+      <c r="K74" s="59" t="s">
+        <v>374</v>
+      </c>
       <c r="L74" s="49"/>
       <c r="M74" s="49"/>
       <c r="N74" s="49"/>
       <c r="O74" s="49"/>
       <c r="P74" s="50"/>
       <c r="Q74" s="50"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="T74" s="53" t="s">
+      <c r="R74" s="58"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6914,18 +7100,18 @@
       <c r="J75" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K75" s="49"/>
+      <c r="K75" s="61" t="s">
+        <v>373</v>
+      </c>
       <c r="L75" s="49"/>
       <c r="M75" s="49"/>
       <c r="N75" s="49"/>
       <c r="O75" s="49"/>
       <c r="P75" s="50"/>
       <c r="Q75" s="50"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="T75" s="53" t="s">
+      <c r="R75" s="60"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="63" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6958,7 +7144,7 @@
       <c r="P76" s="41"/>
       <c r="Q76" s="41"/>
       <c r="R76" s="44"/>
-      <c r="S76" s="42"/>
+      <c r="S76" s="66"/>
       <c r="T76" s="46" t="s">
         <v>330</v>
       </c>
@@ -25950,6 +26136,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -25958,7 +26150,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004DE490683678E84AABC70C83AF04A849" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="d87ba405330fe1fd4ebca86e6510eeed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b66a4e9-493a-4f5b-bd90-2639920d41ca" xmlns:ns3="581feeb0-3f31-43f8-b205-816acbb15e2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a33c0baab722015f1fb37e23302defe" ns2:_="" ns3:_="">
     <xsd:import namespace="6b66a4e9-493a-4f5b-bd90-2639920d41ca"/>
@@ -26129,25 +26321,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BEBB5DD-1DB0-49EC-A2F9-2D1660ECD5A5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -26164,6 +26338,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D728A8-8DBC-4E1F-A925-8A2F000A876D}"/>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
